--- a/data/21-08-2025-categories-export.xlsx
+++ b/data/21-08-2025-categories-export.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
   <si>
     <t>Id</t>
   </si>
@@ -137,6 +137,33 @@
   </si>
   <si>
     <t>Default entry for SFP_TYPES category</t>
+  </si>
+  <si>
+    <t>2f238075-a8b3-460f-9c13-3f8a74f0cd5d</t>
+  </si>
+  <si>
+    <t>OFC_PATH_TYPE</t>
+  </si>
+  <si>
+    <t>Default entry for Ofc Path Type category</t>
+  </si>
+  <si>
+    <t>9fb0aefd-e904-43a2-9ac9-c1cf604fab94</t>
+  </si>
+  <si>
+    <t>OFC_PATH_STATUSES</t>
+  </si>
+  <si>
+    <t>Default entry for Ofc Path Statuses category</t>
+  </si>
+  <si>
+    <t>c2f8889d-4716-4067-bbc8-9f570dd94ce6</t>
+  </si>
+  <si>
+    <t>OFC_JOINT_TYPES</t>
+  </si>
+  <si>
+    <t>Default entry for Ofc Joint Types category</t>
   </si>
 </sst>
 </file>
@@ -235,9 +262,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -885,35 +912,131 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="11">
-        <v>45879</v>
-      </c>
-      <c r="J10" s="11">
-        <v>45879</v>
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45879</v>
+      </c>
+      <c r="J10" s="5">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="8">
+        <v>45890.43228100694</v>
+      </c>
+      <c r="J11" s="8">
+        <v>45890.43228100694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45890.43292957176</v>
+      </c>
+      <c r="J12" s="5">
+        <v>45890.43292957176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="11">
+        <v>45890.42996113426</v>
+      </c>
+      <c r="J13" s="11">
+        <v>45890.44459399306</v>
       </c>
     </row>
   </sheetData>
